--- a/Excelの転記/出席率_大橋校（２年：渡邉）RPA.xlsx
+++ b/Excelの転記/出席率_大橋校（２年：渡邉）RPA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19002\Documents\UiPath\Excelの転記\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2373,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="57">
-        <v>1</v>
+        <v>0.98695652173912995</v>
       </c>
       <c r="K11" s="33" t="str">
         <f>IF(G11&lt;H11,$K$3,IF(G11=H11,$K$4,$K$5))</f>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="J30" s="21">
         <f>AVERAGE(J9:J29)</f>
-        <v>0.91796875</v>
+        <v>0.91362092391304328</v>
       </c>
       <c r="K30" s="33" t="str">
         <f t="shared" si="2"/>
